--- a/Music/Guitar/P4/Book.xlsx
+++ b/Music/Guitar/P4/Book.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{53774E9F-F8D6-9D4E-B884-A0BA46DDD856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{86D9A0D5-9544-654C-916F-5EC266BE6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SameVoice" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="6">
   <si>
     <t>M</t>
   </si>
@@ -32,6 +37,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -67,10 +78,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3D57CB-DDED-1647-8E2F-34441850046B}">
   <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,4 +523,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7B1A2-5E6D-7B41-9EE9-CC6E8DDD3D75}">
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.95703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.95703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>